--- a/방명록/방명록 테이블명세(2021-05-18).xlsx
+++ b/방명록/방명록 테이블명세(2021-05-18).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="방명록" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -953,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2028,4 +2029,77 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>